--- a/config_Release/fish_revive.xlsx
+++ b/config_Release/fish_revive.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="lucky_lib" sheetId="2" r:id="rId3"/>
     <sheet name="limit" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,6 +35,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -44,6 +45,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -158,7 +160,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1,100000,1000</t>
+    <t>1,1,1000000,1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -198,6 +200,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -205,6 +208,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -640,13 +644,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="48.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -823,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
